--- a/supplementary/data5.xlsx
+++ b/supplementary/data5.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
-  <si>
-    <t>Supplemental Data 5: Kinetic simulation parameters and correposnding fit values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="61">
+  <si>
+    <t>Supplemental Data 5: Kinetic simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -955,10 +955,10 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.305</v>
+        <v>0.3049</v>
       </c>
       <c r="C17">
-        <v>0.3009</v>
+        <v>0.3011</v>
       </c>
       <c r="D17">
         <v>0.3095</v>
@@ -1166,10 +1166,10 @@
         <v>0.0328</v>
       </c>
       <c r="C16">
-        <v>0.0325</v>
+        <v>0.0324</v>
       </c>
       <c r="D16">
-        <v>0.0332</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.218</v>
+        <v>0.2179</v>
       </c>
       <c r="C17">
-        <v>0.2162</v>
+        <v>0.2159</v>
       </c>
       <c r="D17">
-        <v>0.22</v>
+        <v>0.2197</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0345</v>
+        <v>0.0344</v>
       </c>
       <c r="C16">
         <v>0.0341</v>
@@ -1399,13 +1399,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2286</v>
+        <v>0.2284</v>
       </c>
       <c r="C17">
-        <v>0.2264</v>
+        <v>0.2265</v>
       </c>
       <c r="D17">
-        <v>0.2309</v>
+        <v>0.2303</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1621,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2499</v>
+        <v>0.25</v>
       </c>
       <c r="C17">
-        <v>0.2475</v>
+        <v>0.2477</v>
       </c>
       <c r="D17">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
     </row>
   </sheetData>
@@ -1843,13 +1843,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.273</v>
+        <v>0.2729</v>
       </c>
       <c r="C17">
         <v>0.2698</v>
       </c>
       <c r="D17">
-        <v>0.276</v>
+        <v>0.2756</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1883,7 +1883,7 @@
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1912,25 +1912,22 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1962,25 +1959,22 @@
         <v>150</v>
       </c>
       <c r="K2">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
       <c r="N2">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -2012,25 +2006,22 @@
         <v>150</v>
       </c>
       <c r="K3">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
       <c r="N3">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -2062,25 +2053,22 @@
         <v>150</v>
       </c>
       <c r="K4">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
       <c r="N4">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>14</v>
-      </c>
-      <c r="P4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -2112,25 +2100,22 @@
         <v>150</v>
       </c>
       <c r="K5">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
       <c r="N5">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2162,25 +2147,22 @@
         <v>150</v>
       </c>
       <c r="K6">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="M6">
-        <v>1000</v>
-      </c>
       <c r="N6">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>14</v>
-      </c>
-      <c r="P6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2212,25 +2194,22 @@
         <v>150</v>
       </c>
       <c r="K7">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
         <v>100</v>
       </c>
-      <c r="M7">
-        <v>1000</v>
-      </c>
       <c r="N7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>14</v>
-      </c>
-      <c r="P7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2262,25 +2241,22 @@
         <v>150</v>
       </c>
       <c r="K8">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
         <v>100</v>
       </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
       <c r="N8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O8">
-        <v>14</v>
-      </c>
-      <c r="P8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2312,25 +2288,22 @@
         <v>150</v>
       </c>
       <c r="K9">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
         <v>100</v>
       </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
       <c r="N9">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="P9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -2362,25 +2335,22 @@
         <v>150</v>
       </c>
       <c r="K10">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
         <v>100</v>
       </c>
-      <c r="M10">
-        <v>1000</v>
-      </c>
       <c r="N10">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>14</v>
-      </c>
-      <c r="P10">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -2412,25 +2382,22 @@
         <v>150</v>
       </c>
       <c r="K11">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
         <v>100</v>
       </c>
-      <c r="M11">
-        <v>1000</v>
-      </c>
       <c r="N11">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O11">
-        <v>14</v>
-      </c>
-      <c r="P11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2462,25 +2429,22 @@
         <v>150</v>
       </c>
       <c r="K12">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
         <v>100</v>
       </c>
-      <c r="M12">
-        <v>1000</v>
-      </c>
       <c r="N12">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O12">
-        <v>14</v>
-      </c>
-      <c r="P12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2512,21 +2476,18 @@
         <v>150</v>
       </c>
       <c r="K13">
-        <v>3.7589</v>
+        <v>100</v>
       </c>
       <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="M13">
         <v>100</v>
       </c>
-      <c r="M13">
-        <v>1000</v>
-      </c>
       <c r="N13">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O13">
-        <v>14</v>
-      </c>
-      <c r="P13">
         <v>0.15</v>
       </c>
     </row>
@@ -2735,7 +2696,7 @@
         <v>0.0107</v>
       </c>
       <c r="D16">
-        <v>0.011</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2749,7 +2710,7 @@
         <v>0.2221</v>
       </c>
       <c r="D17">
-        <v>0.2282</v>
+        <v>0.2288</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2918,7 @@
         <v>0.0121</v>
       </c>
       <c r="D16">
-        <v>0.0125</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2965,13 +2926,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2549</v>
+        <v>0.255</v>
       </c>
       <c r="C17">
-        <v>0.2506</v>
+        <v>0.2507</v>
       </c>
       <c r="D17">
-        <v>0.2589</v>
+        <v>0.2596</v>
       </c>
     </row>
   </sheetData>
@@ -3187,13 +3148,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3114</v>
+        <v>0.3116</v>
       </c>
       <c r="C17">
-        <v>0.3059</v>
+        <v>0.3055</v>
       </c>
       <c r="D17">
-        <v>0.3175</v>
+        <v>0.3181</v>
       </c>
     </row>
   </sheetData>
@@ -3409,13 +3370,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3691</v>
+        <v>0.3696</v>
       </c>
       <c r="C17">
-        <v>0.3609</v>
+        <v>0.3619</v>
       </c>
       <c r="D17">
-        <v>0.3772</v>
+        <v>0.3775</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3592,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2234</v>
+        <v>0.2233</v>
       </c>
       <c r="C17">
         <v>0.2211</v>
       </c>
       <c r="D17">
-        <v>0.2259</v>
+        <v>0.2257</v>
       </c>
     </row>
   </sheetData>
@@ -3853,13 +3814,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2387</v>
+        <v>0.2389</v>
       </c>
       <c r="C17">
-        <v>0.2362</v>
+        <v>0.2363</v>
       </c>
       <c r="D17">
-        <v>0.2414</v>
+        <v>0.2416</v>
       </c>
     </row>
   </sheetData>
@@ -4078,10 +4039,10 @@
         <v>0.2722</v>
       </c>
       <c r="C17">
-        <v>0.2689</v>
+        <v>0.2688</v>
       </c>
       <c r="D17">
-        <v>0.2755</v>
+        <v>0.2758</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data5.xlsx
+++ b/supplementary/data5.xlsx
@@ -781,13 +781,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0864</v>
+        <v>7.1513</v>
       </c>
       <c r="C2">
-        <v>7.0834</v>
+        <v>7.1484</v>
       </c>
       <c r="D2">
-        <v>7.09</v>
+        <v>7.1544</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -798,13 +798,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2147</v>
+        <v>0.2406</v>
       </c>
       <c r="C3">
-        <v>0.2117</v>
+        <v>0.2374</v>
       </c>
       <c r="D3">
-        <v>0.217</v>
+        <v>0.2436</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -815,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9758</v>
+        <v>0.9834000000000001</v>
       </c>
       <c r="C4">
-        <v>0.9713000000000001</v>
+        <v>0.9792</v>
       </c>
       <c r="D4">
-        <v>0.9797</v>
+        <v>0.9879</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -832,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0881</v>
+        <v>0.0873</v>
       </c>
       <c r="C5">
-        <v>0.0868</v>
+        <v>0.0857</v>
       </c>
       <c r="D5">
-        <v>0.0902</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -846,13 +846,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0968</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="C6">
-        <v>0.0951</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D6">
-        <v>0.0992</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.9794</v>
+        <v>3.9472</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9482</v>
+        <v>0.9446</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -879,7 +879,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9801</v>
+        <v>0.9834000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -887,7 +887,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9262</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>90797</v>
+        <v>90701</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -903,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>667</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8366</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -927,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.975</v>
+        <v>0.9631</v>
       </c>
       <c r="C15">
-        <v>0.8223</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="D15">
-        <v>0.9915</v>
+        <v>0.9882</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -941,13 +941,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0292</v>
+        <v>0.0148</v>
       </c>
       <c r="C16">
-        <v>0.0288</v>
+        <v>0.0146</v>
       </c>
       <c r="D16">
-        <v>0.0296</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -955,13 +955,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3049</v>
+        <v>0.3263</v>
       </c>
       <c r="C17">
-        <v>0.3011</v>
+        <v>0.321</v>
       </c>
       <c r="D17">
-        <v>0.3095</v>
+        <v>0.332</v>
       </c>
     </row>
   </sheetData>
@@ -1003,13 +1003,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0367</v>
+        <v>7.0893</v>
       </c>
       <c r="C2">
-        <v>7.0337</v>
+        <v>7.0862</v>
       </c>
       <c r="D2">
-        <v>7.0404</v>
+        <v>7.0926</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1020,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.212</v>
+        <v>0.2339</v>
       </c>
       <c r="C3">
-        <v>0.2099</v>
+        <v>0.2319</v>
       </c>
       <c r="D3">
-        <v>0.2136</v>
+        <v>0.2358</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1037,10 +1037,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0102</v>
+        <v>0.0103</v>
       </c>
       <c r="C4">
-        <v>0.0098</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D4">
         <v>0.0106</v>
@@ -1054,13 +1054,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1293</v>
+        <v>0.1285</v>
       </c>
       <c r="C5">
-        <v>0.1276</v>
+        <v>0.1265</v>
       </c>
       <c r="D5">
-        <v>0.1319</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1068,13 +1068,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.1486</v>
+        <v>0.1474</v>
       </c>
       <c r="C6">
-        <v>0.1462</v>
+        <v>0.1449</v>
       </c>
       <c r="D6">
-        <v>0.152</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7485</v>
+        <v>3.7275</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1093,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9984</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9973</v>
+        <v>0.9983</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>87176</v>
+        <v>87189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>12789</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1149,10 +1149,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9998</v>
+        <v>0.9997</v>
       </c>
       <c r="C15">
-        <v>0.999</v>
+        <v>0.9974</v>
       </c>
       <c r="D15">
         <v>0.9999</v>
@@ -1163,13 +1163,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0328</v>
+        <v>0.0148</v>
       </c>
       <c r="C16">
-        <v>0.0324</v>
+        <v>0.0146</v>
       </c>
       <c r="D16">
-        <v>0.0331</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2179</v>
+        <v>0.2128</v>
       </c>
       <c r="C17">
-        <v>0.2159</v>
+        <v>0.2111</v>
       </c>
       <c r="D17">
-        <v>0.2197</v>
+        <v>0.2144</v>
       </c>
     </row>
   </sheetData>
@@ -1225,13 +1225,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0491</v>
+        <v>7.0809</v>
       </c>
       <c r="C2">
-        <v>7.0461</v>
+        <v>7.0778</v>
       </c>
       <c r="D2">
-        <v>7.0526</v>
+        <v>7.0842</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1242,13 +1242,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2135</v>
+        <v>0.2408</v>
       </c>
       <c r="C3">
-        <v>0.2113</v>
+        <v>0.2387</v>
       </c>
       <c r="D3">
-        <v>0.2152</v>
+        <v>0.2429</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1259,13 +1259,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1493</v>
+        <v>0.1505</v>
       </c>
       <c r="C4">
-        <v>0.1476</v>
+        <v>0.1488</v>
       </c>
       <c r="D4">
-        <v>0.1509</v>
+        <v>0.1521</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -1276,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1323</v>
+        <v>0.1308</v>
       </c>
       <c r="C5">
-        <v>0.1307</v>
+        <v>0.1288</v>
       </c>
       <c r="D5">
-        <v>0.1348</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.1527</v>
+        <v>0.1505</v>
       </c>
       <c r="C6">
-        <v>0.1496</v>
+        <v>0.1479</v>
       </c>
       <c r="D6">
-        <v>0.155</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7922</v>
+        <v>3.7795</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.99</v>
+        <v>0.9905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1323,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9983</v>
+        <v>0.9991</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1331,7 +1331,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9843</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>87007</v>
+        <v>87009</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1347,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1355,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1363,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>12767</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1371,13 +1371,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9974</v>
+        <v>0.996</v>
       </c>
       <c r="C15">
-        <v>0.9857</v>
+        <v>0.9674</v>
       </c>
       <c r="D15">
-        <v>0.9994</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0344</v>
+        <v>0.0158</v>
       </c>
       <c r="C16">
-        <v>0.0341</v>
+        <v>0.0156</v>
       </c>
       <c r="D16">
-        <v>0.0348</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2284</v>
+        <v>0.2273</v>
       </c>
       <c r="C17">
-        <v>0.2265</v>
+        <v>0.2252</v>
       </c>
       <c r="D17">
-        <v>0.2303</v>
+        <v>0.2295</v>
       </c>
     </row>
   </sheetData>
@@ -1447,13 +1447,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0668</v>
+        <v>7.1225</v>
       </c>
       <c r="C2">
-        <v>7.0638</v>
+        <v>7.1194</v>
       </c>
       <c r="D2">
-        <v>7.0704</v>
+        <v>7.1256</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1464,13 +1464,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2117</v>
+        <v>0.2393</v>
       </c>
       <c r="C3">
-        <v>0.2095</v>
+        <v>0.2369</v>
       </c>
       <c r="D3">
-        <v>0.2134</v>
+        <v>0.2415</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1481,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4945</v>
+        <v>0.4967</v>
       </c>
       <c r="C4">
-        <v>0.4916</v>
+        <v>0.4939</v>
       </c>
       <c r="D4">
-        <v>0.4971</v>
+        <v>0.4996</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -1498,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.132</v>
+        <v>0.1283</v>
       </c>
       <c r="C5">
-        <v>0.1305</v>
+        <v>0.1263</v>
       </c>
       <c r="D5">
-        <v>0.1344</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1512,13 +1512,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.1522</v>
+        <v>0.1472</v>
       </c>
       <c r="C6">
-        <v>0.1493</v>
+        <v>0.1445</v>
       </c>
       <c r="D6">
-        <v>0.1545</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1526,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.8909</v>
+        <v>3.8653</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1537,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9749</v>
+        <v>0.9739</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1545,7 +1545,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9926</v>
+        <v>0.9939</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9639</v>
+        <v>0.9609</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1561,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>86735</v>
+        <v>86694</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>476</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>12694</v>
+        <v>12711</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1593,13 +1593,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9916</v>
+        <v>0.9868</v>
       </c>
       <c r="C15">
-        <v>0.9486</v>
+        <v>0.8965</v>
       </c>
       <c r="D15">
-        <v>0.9991</v>
+        <v>0.9964</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1607,13 +1607,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0377</v>
+        <v>0.0178</v>
       </c>
       <c r="C16">
-        <v>0.0373</v>
+        <v>0.0176</v>
       </c>
       <c r="D16">
-        <v>0.0381</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1621,13 +1621,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.25</v>
+        <v>0.2572</v>
       </c>
       <c r="C17">
-        <v>0.2477</v>
+        <v>0.2543</v>
       </c>
       <c r="D17">
-        <v>0.2527</v>
+        <v>0.2601</v>
       </c>
     </row>
   </sheetData>
@@ -1669,13 +1669,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0932</v>
+        <v>7.1711</v>
       </c>
       <c r="C2">
-        <v>7.0902</v>
+        <v>7.168</v>
       </c>
       <c r="D2">
-        <v>7.0967</v>
+        <v>7.1745</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1686,13 +1686,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.212</v>
+        <v>0.24</v>
       </c>
       <c r="C3">
-        <v>0.2096</v>
+        <v>0.2373</v>
       </c>
       <c r="D3">
-        <v>0.2137</v>
+        <v>0.2426</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1703,13 +1703,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9785</v>
+        <v>0.9781</v>
       </c>
       <c r="C4">
-        <v>0.974</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="D4">
-        <v>0.9825</v>
+        <v>0.9821</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1720,13 +1720,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1318</v>
+        <v>0.1283</v>
       </c>
       <c r="C5">
-        <v>0.1303</v>
+        <v>0.1263</v>
       </c>
       <c r="D5">
-        <v>0.1342</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1734,13 +1734,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.152</v>
+        <v>0.1471</v>
       </c>
       <c r="C6">
-        <v>0.149</v>
+        <v>0.1446</v>
       </c>
       <c r="D6">
-        <v>0.1542</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.9786</v>
+        <v>3.9459</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1759,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9603</v>
+        <v>0.9587</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1767,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9851</v>
+        <v>0.9893</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1775,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9462</v>
+        <v>0.9396</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1783,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>86494</v>
+        <v>86397</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>717</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1799,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1807,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>12598</v>
+        <v>12652</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1815,13 +1815,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9841</v>
+        <v>0.9761</v>
       </c>
       <c r="C15">
-        <v>0.889</v>
+        <v>0.8182</v>
       </c>
       <c r="D15">
-        <v>0.9954</v>
+        <v>0.9923</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1829,13 +1829,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0409</v>
+        <v>0.0199</v>
       </c>
       <c r="C16">
-        <v>0.0405</v>
+        <v>0.0197</v>
       </c>
       <c r="D16">
-        <v>0.0413</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2729</v>
+        <v>0.2873</v>
       </c>
       <c r="C17">
-        <v>0.2698</v>
+        <v>0.2834</v>
       </c>
       <c r="D17">
-        <v>0.2756</v>
+        <v>0.2911</v>
       </c>
     </row>
   </sheetData>
@@ -2530,13 +2530,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.051</v>
+        <v>7.077</v>
       </c>
       <c r="C2">
-        <v>7.0478</v>
+        <v>7.0736</v>
       </c>
       <c r="D2">
-        <v>7.0548</v>
+        <v>7.0805</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2547,13 +2547,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2077</v>
+        <v>0.2303</v>
       </c>
       <c r="C3">
-        <v>0.2045</v>
+        <v>0.227</v>
       </c>
       <c r="D3">
-        <v>0.2102</v>
+        <v>0.2334</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2564,13 +2564,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0102</v>
+        <v>0.0104</v>
       </c>
       <c r="C4">
-        <v>0.0097</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D4">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
       <c r="E4">
         <v>0.01</v>
@@ -2581,13 +2581,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0449</v>
+        <v>0.0451</v>
       </c>
       <c r="C5">
-        <v>0.0437</v>
+        <v>0.0439</v>
       </c>
       <c r="D5">
-        <v>0.0462</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2595,13 +2595,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0471</v>
+        <v>0.0472</v>
       </c>
       <c r="C6">
-        <v>0.0457</v>
+        <v>0.0459</v>
       </c>
       <c r="D6">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7505</v>
+        <v>3.7315</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -2620,7 +2620,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9976</v>
+        <v>0.9981</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2628,7 +2628,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2636,7 +2636,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9956</v>
+        <v>0.9965000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2644,7 +2644,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>95483</v>
+        <v>95487</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2652,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2660,7 +2660,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2668,7 +2668,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9994</v>
+        <v>0.9991</v>
       </c>
       <c r="C15">
-        <v>0.997</v>
+        <v>0.9913999999999999</v>
       </c>
       <c r="D15">
         <v>0.9998</v>
@@ -2690,13 +2690,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0109</v>
+        <v>0.0051</v>
       </c>
       <c r="C16">
-        <v>0.0107</v>
+        <v>0.005</v>
       </c>
       <c r="D16">
-        <v>0.0111</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2251</v>
+        <v>0.2191</v>
       </c>
       <c r="C17">
-        <v>0.2221</v>
+        <v>0.2164</v>
       </c>
       <c r="D17">
-        <v>0.2288</v>
+        <v>0.222</v>
       </c>
     </row>
   </sheetData>
@@ -2752,13 +2752,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0432</v>
+        <v>7.0767</v>
       </c>
       <c r="C2">
-        <v>7.0402</v>
+        <v>7.0735</v>
       </c>
       <c r="D2">
-        <v>7.0468</v>
+        <v>7.0801</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2769,13 +2769,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2123</v>
+        <v>0.2395</v>
       </c>
       <c r="C3">
-        <v>0.2085</v>
+        <v>0.2358</v>
       </c>
       <c r="D3">
-        <v>0.2152</v>
+        <v>0.243</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2786,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1507</v>
+        <v>0.1495</v>
       </c>
       <c r="C4">
-        <v>0.149</v>
+        <v>0.1479</v>
       </c>
       <c r="D4">
-        <v>0.1523</v>
+        <v>0.151</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -2803,13 +2803,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0465</v>
+        <v>0.0474</v>
       </c>
       <c r="C5">
-        <v>0.0452</v>
+        <v>0.0462</v>
       </c>
       <c r="D5">
-        <v>0.0479</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2817,13 +2817,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0488</v>
+        <v>0.0498</v>
       </c>
       <c r="C6">
-        <v>0.0473</v>
+        <v>0.0484</v>
       </c>
       <c r="D6">
-        <v>0.0503</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7991</v>
+        <v>3.7836</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -2842,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9782999999999999</v>
+        <v>0.9781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2850,7 +2850,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9938</v>
+        <v>0.9971</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2858,7 +2858,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.965</v>
+        <v>0.9614</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2866,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>95341</v>
+        <v>95323</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2882,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2890,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4469</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2898,13 +2898,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9918</v>
+        <v>0.9883</v>
       </c>
       <c r="C15">
-        <v>0.9510999999999999</v>
+        <v>0.9147</v>
       </c>
       <c r="D15">
-        <v>0.9985000000000001</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2912,13 +2912,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0123</v>
+        <v>0.006</v>
       </c>
       <c r="C16">
-        <v>0.0121</v>
+        <v>0.0059</v>
       </c>
       <c r="D16">
-        <v>0.0126</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2926,13 +2926,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.255</v>
+        <v>0.2583</v>
       </c>
       <c r="C17">
-        <v>0.2507</v>
+        <v>0.2534</v>
       </c>
       <c r="D17">
-        <v>0.2596</v>
+        <v>0.263</v>
       </c>
     </row>
   </sheetData>
@@ -2974,13 +2974,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0656</v>
+        <v>7.1187</v>
       </c>
       <c r="C2">
-        <v>7.0627</v>
+        <v>7.1155</v>
       </c>
       <c r="D2">
-        <v>7.0691</v>
+        <v>7.1222</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2991,13 +2991,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2149</v>
+        <v>0.2378</v>
       </c>
       <c r="C3">
-        <v>0.2106</v>
+        <v>0.2339</v>
       </c>
       <c r="D3">
-        <v>0.2182</v>
+        <v>0.2415</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -3008,13 +3008,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4937</v>
+        <v>0.4984</v>
       </c>
       <c r="C4">
-        <v>0.4909</v>
+        <v>0.4955</v>
       </c>
       <c r="D4">
-        <v>0.4962</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -3025,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0455</v>
+        <v>0.0456</v>
       </c>
       <c r="C5">
-        <v>0.0443</v>
+        <v>0.0444</v>
       </c>
       <c r="D5">
-        <v>0.0468</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3039,13 +3039,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0477</v>
+        <v>0.0478</v>
       </c>
       <c r="C6">
-        <v>0.0463</v>
+        <v>0.0464</v>
       </c>
       <c r="D6">
-        <v>0.0491</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3053,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.8852</v>
+        <v>3.8517</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -3064,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9471000000000001</v>
+        <v>0.9449</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3072,7 +3072,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9792999999999999</v>
+        <v>0.9835</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3080,7 +3080,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9206</v>
+        <v>0.9127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3088,7 +3088,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>95123</v>
+        <v>95080</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3096,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3104,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3112,7 +3112,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4404</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3120,13 +3120,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9726</v>
+        <v>0.96</v>
       </c>
       <c r="C15">
-        <v>0.827</v>
+        <v>0.7443</v>
       </c>
       <c r="D15">
-        <v>0.9985000000000001</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3134,13 +3134,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0151</v>
+        <v>0.0078</v>
       </c>
       <c r="C16">
-        <v>0.0148</v>
+        <v>0.0077</v>
       </c>
       <c r="D16">
-        <v>0.0154</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3148,13 +3148,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3116</v>
+        <v>0.3327</v>
       </c>
       <c r="C17">
-        <v>0.3055</v>
+        <v>0.3255</v>
       </c>
       <c r="D17">
-        <v>0.3181</v>
+        <v>0.3395</v>
       </c>
     </row>
   </sheetData>
@@ -3196,13 +3196,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0895</v>
+        <v>7.1541</v>
       </c>
       <c r="C2">
-        <v>7.0864</v>
+        <v>7.151</v>
       </c>
       <c r="D2">
-        <v>7.0931</v>
+        <v>7.1574</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -3213,13 +3213,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.212</v>
+        <v>0.2384</v>
       </c>
       <c r="C3">
-        <v>0.2077</v>
+        <v>0.2333</v>
       </c>
       <c r="D3">
-        <v>0.2154</v>
+        <v>0.2432</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -3230,13 +3230,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9858</v>
+        <v>0.9845</v>
       </c>
       <c r="C4">
-        <v>0.9813</v>
+        <v>0.9808</v>
       </c>
       <c r="D4">
-        <v>0.9897</v>
+        <v>0.9883999999999999</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3247,13 +3247,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0461</v>
+        <v>0.0472</v>
       </c>
       <c r="C5">
-        <v>0.0448</v>
+        <v>0.0459</v>
       </c>
       <c r="D5">
-        <v>0.0475</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3261,13 +3261,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0484</v>
+        <v>0.0496</v>
       </c>
       <c r="C6">
-        <v>0.0469</v>
+        <v>0.0481</v>
       </c>
       <c r="D6">
-        <v>0.0499</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3275,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.978</v>
+        <v>3.9417</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -3286,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9177999999999999</v>
+        <v>0.9154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9611</v>
+        <v>0.9666</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3302,7 +3302,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.8838</v>
+        <v>0.8743</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3310,7 +3310,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>94935</v>
+        <v>94878</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3318,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>568</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3326,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3334,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4322</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3342,13 +3342,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9509</v>
+        <v>0.9317</v>
       </c>
       <c r="C15">
-        <v>0.5911</v>
+        <v>0.5835</v>
       </c>
       <c r="D15">
-        <v>0.9816</v>
+        <v>0.9777</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3356,13 +3356,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0178</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.0175</v>
+        <v>0.0091</v>
       </c>
       <c r="D16">
-        <v>0.0182</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3696</v>
+        <v>0.3967</v>
       </c>
       <c r="C17">
-        <v>0.3619</v>
+        <v>0.3876</v>
       </c>
       <c r="D17">
-        <v>0.3775</v>
+        <v>0.4058</v>
       </c>
     </row>
   </sheetData>
@@ -3418,13 +3418,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0222</v>
+        <v>7.0843</v>
       </c>
       <c r="C2">
-        <v>7.0191</v>
+        <v>7.0813</v>
       </c>
       <c r="D2">
-        <v>7.0259</v>
+        <v>7.0874</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -3435,13 +3435,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2101</v>
+        <v>0.2321</v>
       </c>
       <c r="C3">
-        <v>0.2077</v>
+        <v>0.2296</v>
       </c>
       <c r="D3">
-        <v>0.2119</v>
+        <v>0.2344</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -3452,13 +3452,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009900000000000001</v>
+        <v>0.0107</v>
       </c>
       <c r="C4">
-        <v>0.0094</v>
+        <v>0.0102</v>
       </c>
       <c r="D4">
-        <v>0.0103</v>
+        <v>0.0112</v>
       </c>
       <c r="E4">
         <v>0.01</v>
@@ -3469,13 +3469,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08740000000000001</v>
+        <v>0.0872</v>
       </c>
       <c r="C5">
-        <v>0.0861</v>
+        <v>0.0854</v>
       </c>
       <c r="D5">
-        <v>0.0895</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3483,13 +3483,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0959</v>
+        <v>0.0956</v>
       </c>
       <c r="C6">
-        <v>0.09420000000000001</v>
+        <v>0.0934</v>
       </c>
       <c r="D6">
-        <v>0.0984</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3497,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7534</v>
+        <v>3.7309</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -3508,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9978</v>
+        <v>0.9987</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3516,7 +3516,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9999</v>
+        <v>0.9998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3524,7 +3524,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9961</v>
+        <v>0.9979</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3532,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>91431</v>
+        <v>91446</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3540,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3548,7 +3548,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8535</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3564,10 +3564,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9997</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="C15">
-        <v>0.9985000000000001</v>
+        <v>0.9954</v>
       </c>
       <c r="D15">
         <v>0.9999</v>
@@ -3578,13 +3578,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0214</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="C16">
-        <v>0.0211</v>
+        <v>0.0097</v>
       </c>
       <c r="D16">
-        <v>0.0217</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3592,13 +3592,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2233</v>
+        <v>0.2179</v>
       </c>
       <c r="C17">
-        <v>0.2211</v>
+        <v>0.2157</v>
       </c>
       <c r="D17">
-        <v>0.2257</v>
+        <v>0.2201</v>
       </c>
     </row>
   </sheetData>
@@ -3640,13 +3640,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0502</v>
+        <v>7.0789</v>
       </c>
       <c r="C2">
-        <v>7.0473</v>
+        <v>7.0757</v>
       </c>
       <c r="D2">
-        <v>7.0538</v>
+        <v>7.0822</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -3657,13 +3657,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2126</v>
+        <v>0.2334</v>
       </c>
       <c r="C3">
-        <v>0.21</v>
+        <v>0.2308</v>
       </c>
       <c r="D3">
-        <v>0.2145</v>
+        <v>0.2358</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -3674,13 +3674,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1482</v>
+        <v>0.1518</v>
       </c>
       <c r="C4">
-        <v>0.1466</v>
+        <v>0.1502</v>
       </c>
       <c r="D4">
-        <v>0.1497</v>
+        <v>0.1534</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -3691,13 +3691,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0881</v>
+        <v>0.0844</v>
       </c>
       <c r="C5">
-        <v>0.0867</v>
+        <v>0.0827</v>
       </c>
       <c r="D5">
-        <v>0.09030000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3705,13 +3705,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.09669999999999999</v>
+        <v>0.0921</v>
       </c>
       <c r="C6">
-        <v>0.0949</v>
+        <v>0.0902</v>
       </c>
       <c r="D6">
-        <v>0.0993</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.797</v>
+        <v>3.7825</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -3730,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9873</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3738,7 +3738,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.9977</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3746,7 +3746,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9792</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3754,7 +3754,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>91283</v>
+        <v>91276</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3762,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3778,7 +3778,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8516</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3786,13 +3786,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9959</v>
+        <v>0.9933999999999999</v>
       </c>
       <c r="C15">
-        <v>0.977</v>
+        <v>0.9385</v>
       </c>
       <c r="D15">
-        <v>0.9991</v>
+        <v>0.9984</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3800,13 +3800,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0229</v>
+        <v>0.0108</v>
       </c>
       <c r="C16">
-        <v>0.0226</v>
+        <v>0.0107</v>
       </c>
       <c r="D16">
-        <v>0.0232</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2389</v>
+        <v>0.2401</v>
       </c>
       <c r="C17">
-        <v>0.2363</v>
+        <v>0.2373</v>
       </c>
       <c r="D17">
-        <v>0.2416</v>
+        <v>0.2431</v>
       </c>
     </row>
   </sheetData>
@@ -3862,13 +3862,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0754</v>
+        <v>7.101</v>
       </c>
       <c r="C2">
-        <v>7.0724</v>
+        <v>7.0978</v>
       </c>
       <c r="D2">
-        <v>7.079</v>
+        <v>7.1042</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -3879,13 +3879,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2121</v>
+        <v>0.2351</v>
       </c>
       <c r="C3">
-        <v>0.2092</v>
+        <v>0.2325</v>
       </c>
       <c r="D3">
-        <v>0.2142</v>
+        <v>0.2376</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -3896,13 +3896,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.5012</v>
+        <v>0.5051</v>
       </c>
       <c r="C4">
-        <v>0.4981</v>
+        <v>0.5022</v>
       </c>
       <c r="D4">
-        <v>0.5039</v>
+        <v>0.5083</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -3913,13 +3913,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0866</v>
+        <v>0.0844</v>
       </c>
       <c r="C5">
-        <v>0.0853</v>
+        <v>0.0827</v>
       </c>
       <c r="D5">
-        <v>0.0886</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3927,13 +3927,13 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.0949</v>
+        <v>0.0922</v>
       </c>
       <c r="C6">
-        <v>0.09320000000000001</v>
+        <v>0.0902</v>
       </c>
       <c r="D6">
-        <v>0.09719999999999999</v>
+        <v>0.09420000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3941,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.8873</v>
+        <v>3.8684</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -3952,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9669</v>
+        <v>0.9643</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3960,7 +3960,7 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>0.989</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3968,7 +3968,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.9509</v>
+        <v>0.9455</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3976,7 +3976,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>91028</v>
+        <v>90977</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3984,7 +3984,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3992,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4000,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8442</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4008,13 +4008,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9863</v>
+        <v>0.9786</v>
       </c>
       <c r="C15">
-        <v>0.9117</v>
+        <v>0.8319</v>
       </c>
       <c r="D15">
-        <v>0.9992</v>
+        <v>0.9943</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4022,13 +4022,13 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.0261</v>
+        <v>0.0129</v>
       </c>
       <c r="C16">
-        <v>0.0258</v>
+        <v>0.0127</v>
       </c>
       <c r="D16">
-        <v>0.0264</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2722</v>
+        <v>0.2852</v>
       </c>
       <c r="C17">
-        <v>0.2688</v>
+        <v>0.2813</v>
       </c>
       <c r="D17">
-        <v>0.2758</v>
+        <v>0.2894</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data5.xlsx
+++ b/supplementary/data5.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="61">
   <si>
-    <t>Supplemental Data 5: Kinetic simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 5: Kinetic simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -947,7 +947,7 @@
         <v>0.0146</v>
       </c>
       <c r="D16">
-        <v>0.0151</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -955,13 +955,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3263</v>
+        <v>0.3262</v>
       </c>
       <c r="C17">
         <v>0.321</v>
       </c>
       <c r="D17">
-        <v>0.332</v>
+        <v>0.3317</v>
       </c>
     </row>
   </sheetData>
@@ -1177,10 +1177,10 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2128</v>
+        <v>0.2127</v>
       </c>
       <c r="C17">
-        <v>0.2111</v>
+        <v>0.211</v>
       </c>
       <c r="D17">
         <v>0.2144</v>
@@ -1405,7 +1405,7 @@
         <v>0.2252</v>
       </c>
       <c r="D17">
-        <v>0.2295</v>
+        <v>0.2294</v>
       </c>
     </row>
   </sheetData>
@@ -1843,13 +1843,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2873</v>
+        <v>0.2872</v>
       </c>
       <c r="C17">
-        <v>0.2834</v>
+        <v>0.2837</v>
       </c>
       <c r="D17">
-        <v>0.2911</v>
+        <v>0.2909</v>
       </c>
     </row>
   </sheetData>
@@ -2704,13 +2704,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2191</v>
+        <v>0.2192</v>
       </c>
       <c r="C17">
-        <v>0.2164</v>
+        <v>0.2162</v>
       </c>
       <c r="D17">
-        <v>0.222</v>
+        <v>0.2225</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2912,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
       <c r="C16">
         <v>0.0059</v>
@@ -2926,13 +2926,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2583</v>
+        <v>0.2584</v>
       </c>
       <c r="C17">
-        <v>0.2534</v>
+        <v>0.2539</v>
       </c>
       <c r="D17">
-        <v>0.263</v>
+        <v>0.2634</v>
       </c>
     </row>
   </sheetData>
@@ -3148,13 +3148,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3327</v>
+        <v>0.333</v>
       </c>
       <c r="C17">
         <v>0.3255</v>
       </c>
       <c r="D17">
-        <v>0.3395</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +3359,7 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.0091</v>
+        <v>0.0092</v>
       </c>
       <c r="D16">
         <v>0.0095</v>
@@ -3370,13 +3370,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.3967</v>
+        <v>0.3964</v>
       </c>
       <c r="C17">
-        <v>0.3876</v>
+        <v>0.3882</v>
       </c>
       <c r="D17">
-        <v>0.4058</v>
+        <v>0.4053</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3578,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>0.009900000000000001</v>
+        <v>0.0098</v>
       </c>
       <c r="C16">
         <v>0.0097</v>
@@ -3592,13 +3592,13 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>0.2179</v>
+        <v>0.2177</v>
       </c>
       <c r="C17">
-        <v>0.2157</v>
+        <v>0.2158</v>
       </c>
       <c r="D17">
-        <v>0.2201</v>
+        <v>0.2197</v>
       </c>
     </row>
   </sheetData>
@@ -3817,10 +3817,10 @@
         <v>0.2401</v>
       </c>
       <c r="C17">
-        <v>0.2373</v>
+        <v>0.237</v>
       </c>
       <c r="D17">
-        <v>0.2431</v>
+        <v>0.2433</v>
       </c>
     </row>
   </sheetData>
@@ -4028,7 +4028,7 @@
         <v>0.0127</v>
       </c>
       <c r="D16">
-        <v>0.013</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4039,10 +4039,10 @@
         <v>0.2852</v>
       </c>
       <c r="C17">
-        <v>0.2813</v>
+        <v>0.2814</v>
       </c>
       <c r="D17">
-        <v>0.2894</v>
+        <v>0.2899</v>
       </c>
     </row>
   </sheetData>
